--- a/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.43513186651235</v>
+        <v>93.46472579137166</v>
       </c>
       <c r="D2" t="n">
-        <v>1.371438675486029</v>
+        <v>1.216389472326439</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.37707868284542</v>
+        <v>92.42508704828003</v>
       </c>
       <c r="D3" t="n">
-        <v>1.444479347730948</v>
+        <v>1.184284271435331</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.26038963273839</v>
+        <v>91.38105951893547</v>
       </c>
       <c r="D4" t="n">
-        <v>1.223904100962538</v>
+        <v>1.080772838318403</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.37840440462514</v>
+        <v>90.00769892845587</v>
       </c>
       <c r="D5" t="n">
-        <v>1.519937637628036</v>
+        <v>1.204303646375733</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.08302685223647</v>
+        <v>89.05533877464066</v>
       </c>
       <c r="D6" t="n">
-        <v>1.147516280496452</v>
+        <v>1.098180333813624</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.68767827884592</v>
+        <v>87.89148305501075</v>
       </c>
       <c r="D7" t="n">
-        <v>1.268479352246518</v>
+        <v>1.189655005547449</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.88202164435052</v>
+        <v>87.04445513306429</v>
       </c>
       <c r="D8" t="n">
-        <v>1.21703741689466</v>
+        <v>1.083688931271389</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.71221518190929</v>
+        <v>85.83991694282776</v>
       </c>
       <c r="D9" t="n">
-        <v>1.418409527275284</v>
+        <v>1.379597197785526</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.58592513897673</v>
+        <v>84.65057927893598</v>
       </c>
       <c r="D10" t="n">
-        <v>1.211402801456724</v>
+        <v>1.282769337633622</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.40873022237164</v>
+        <v>83.62885453047575</v>
       </c>
       <c r="D11" t="n">
-        <v>1.278272792220589</v>
+        <v>1.167324052871823</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.42634528085772</v>
+        <v>82.35862399059911</v>
       </c>
       <c r="D12" t="n">
-        <v>1.196394288999711</v>
+        <v>1.179419260186768</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.18194897923479</v>
+        <v>81.61857142019909</v>
       </c>
       <c r="D13" t="n">
-        <v>1.397824317260052</v>
+        <v>1.187462972152529</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.25972305715072</v>
+        <v>80.50985663564825</v>
       </c>
       <c r="D14" t="n">
-        <v>1.120330628158539</v>
+        <v>1.36148122839771</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.23737149341152</v>
+        <v>79.50768633254411</v>
       </c>
       <c r="D15" t="n">
-        <v>1.159747704058153</v>
+        <v>1.215490607245574</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.95866681210541</v>
+        <v>78.16840746408576</v>
       </c>
       <c r="D16" t="n">
-        <v>1.181706882648137</v>
+        <v>1.155146570168445</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.26493135737115</v>
+        <v>77.18160297502202</v>
       </c>
       <c r="D17" t="n">
-        <v>1.315417328239254</v>
+        <v>1.193488670162105</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.04003560183727</v>
+        <v>75.91393600743135</v>
       </c>
       <c r="D18" t="n">
-        <v>1.199268559924584</v>
+        <v>1.214079932142222</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.98561841613844</v>
+        <v>74.89667359701988</v>
       </c>
       <c r="D19" t="n">
-        <v>1.238293777565282</v>
+        <v>1.251236360141428</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.68635857097445</v>
+        <v>73.66042395534018</v>
       </c>
       <c r="D20" t="n">
-        <v>1.355628765008658</v>
+        <v>1.194266931958462</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.64102003612994</v>
+        <v>72.64141854110476</v>
       </c>
       <c r="D21" t="n">
-        <v>1.222632883810616</v>
+        <v>1.308462587643431</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.70673714207447</v>
+        <v>71.63316592412711</v>
       </c>
       <c r="D22" t="n">
-        <v>1.357955728401176</v>
+        <v>1.093791872063083</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.60851389089191</v>
+        <v>70.39389039763094</v>
       </c>
       <c r="D23" t="n">
-        <v>1.162484876236917</v>
+        <v>1.239348660120965</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.6824461599345</v>
+        <v>69.74145756088767</v>
       </c>
       <c r="D24" t="n">
-        <v>1.12164296770955</v>
+        <v>1.08886789698399</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.29040114820457</v>
+        <v>68.40282537984538</v>
       </c>
       <c r="D25" t="n">
-        <v>1.327233371947044</v>
+        <v>1.230122828750334</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.6815097706865</v>
+        <v>67.20297353978383</v>
       </c>
       <c r="D26" t="n">
-        <v>1.281807529566362</v>
+        <v>1.244975940186964</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.47706223888335</v>
+        <v>66.39267019310275</v>
       </c>
       <c r="D27" t="n">
-        <v>1.438503182042306</v>
+        <v>1.108559800210304</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.30486998008618</v>
+        <v>65.37824062984915</v>
       </c>
       <c r="D28" t="n">
-        <v>1.278760843870723</v>
+        <v>1.308590802973287</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.20374358345406</v>
+        <v>64.3479991927436</v>
       </c>
       <c r="D29" t="n">
-        <v>1.083136369484178</v>
+        <v>1.232759790763785</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.13888510845432</v>
+        <v>63.12169243927087</v>
       </c>
       <c r="D30" t="n">
-        <v>1.263209769291097</v>
+        <v>1.143051902024219</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.97348019371277</v>
+        <v>62.17843944282975</v>
       </c>
       <c r="D31" t="n">
-        <v>1.259440437841676</v>
+        <v>1.281087556998023</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.11161920034093</v>
+        <v>61.23238909533811</v>
       </c>
       <c r="D32" t="n">
-        <v>1.140026435620947</v>
+        <v>1.189100675522145</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.81178133739017</v>
+        <v>60.06161419098821</v>
       </c>
       <c r="D33" t="n">
-        <v>1.202519172929112</v>
+        <v>1.078337151859866</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.14279632240078</v>
+        <v>58.804270167193</v>
       </c>
       <c r="D34" t="n">
-        <v>1.248434839878733</v>
+        <v>1.276293023302344</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.82878299701431</v>
+        <v>57.99895125929974</v>
       </c>
       <c r="D35" t="n">
-        <v>1.233948997017838</v>
+        <v>1.202936600644552</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.61654770502315</v>
+        <v>56.79706625781133</v>
       </c>
       <c r="D36" t="n">
-        <v>1.243559007040356</v>
+        <v>1.215754642671008</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.80193454396706</v>
+        <v>55.92598812873092</v>
       </c>
       <c r="D37" t="n">
-        <v>1.323056493444577</v>
+        <v>1.352427238811902</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.73034494446632</v>
+        <v>54.7109158064267</v>
       </c>
       <c r="D38" t="n">
-        <v>1.371503305776766</v>
+        <v>1.197818576377363</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.55741635816057</v>
+        <v>53.61995441911861</v>
       </c>
       <c r="D39" t="n">
-        <v>1.420219650721734</v>
+        <v>1.251404448072337</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.68967274241063</v>
+        <v>52.77657290515519</v>
       </c>
       <c r="D40" t="n">
-        <v>1.187808482805884</v>
+        <v>1.279527391975874</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.75230175061898</v>
+        <v>51.73118120269901</v>
       </c>
       <c r="D41" t="n">
-        <v>1.179495784795415</v>
+        <v>1.127620124516004</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.5641140510122</v>
+        <v>50.63888926505096</v>
       </c>
       <c r="D42" t="n">
-        <v>1.177805977199127</v>
+        <v>1.235557159933426</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.43841912267206</v>
+        <v>49.65400561834286</v>
       </c>
       <c r="D43" t="n">
-        <v>1.313898854492394</v>
+        <v>1.338106644683462</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.58056913082685</v>
+        <v>48.42769101044448</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9547216990965159</v>
+        <v>1.120924602065899</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.55291654146357</v>
+        <v>47.45887611349541</v>
       </c>
       <c r="D45" t="n">
-        <v>1.293496350859827</v>
+        <v>1.414535524895314</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.3419879766576</v>
+        <v>46.32035165568237</v>
       </c>
       <c r="D46" t="n">
-        <v>1.283477939510201</v>
+        <v>1.127346797856494</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.20414774985156</v>
+        <v>45.43400100966667</v>
       </c>
       <c r="D47" t="n">
-        <v>1.110803188518402</v>
+        <v>1.252396850793507</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.41938204409098</v>
+        <v>44.30173609204424</v>
       </c>
       <c r="D48" t="n">
-        <v>1.309181388201149</v>
+        <v>1.144172102218552</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.17850727398257</v>
+        <v>43.53657232463931</v>
       </c>
       <c r="D49" t="n">
-        <v>1.256124133916883</v>
+        <v>1.329638481082994</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.31147460199567</v>
+        <v>42.34179009837955</v>
       </c>
       <c r="D50" t="n">
-        <v>1.114125557527184</v>
+        <v>1.281612493770328</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.22416702695847</v>
+        <v>41.28613590732481</v>
       </c>
       <c r="D51" t="n">
-        <v>1.404542445935012</v>
+        <v>1.165141242355266</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.35641732251025</v>
+        <v>40.38555480033797</v>
       </c>
       <c r="D52" t="n">
-        <v>1.123630748999293</v>
+        <v>1.237579977330161</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.36326078849845</v>
+        <v>39.27099687946509</v>
       </c>
       <c r="D53" t="n">
-        <v>1.20212903973648</v>
+        <v>1.236589434413239</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.19536309530971</v>
+        <v>38.21343573160145</v>
       </c>
       <c r="D54" t="n">
-        <v>1.138310661018185</v>
+        <v>1.320945998400036</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.17443763666479</v>
+        <v>37.34431158775267</v>
       </c>
       <c r="D55" t="n">
-        <v>1.248265491162114</v>
+        <v>1.126205665770147</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.1461751478576</v>
+        <v>36.07525577834233</v>
       </c>
       <c r="D56" t="n">
-        <v>1.089594385270742</v>
+        <v>1.14047818530053</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.21827780128375</v>
+        <v>35.23365095025208</v>
       </c>
       <c r="D57" t="n">
-        <v>1.111205755371171</v>
+        <v>1.267869272132735</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.2330518314532</v>
+        <v>34.14822127642878</v>
       </c>
       <c r="D58" t="n">
-        <v>1.217914772272161</v>
+        <v>1.123374534666348</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.96193126878197</v>
+        <v>33.11575180398866</v>
       </c>
       <c r="D59" t="n">
-        <v>1.366702552983506</v>
+        <v>1.208475438357179</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.07256690958653</v>
+        <v>32.07327126198818</v>
       </c>
       <c r="D60" t="n">
-        <v>1.152469102360141</v>
+        <v>1.396002080983993</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.08298698860074</v>
+        <v>31.22516400389462</v>
       </c>
       <c r="D61" t="n">
-        <v>1.322244319455505</v>
+        <v>1.279655674916725</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.95331636609435</v>
+        <v>29.90156553752678</v>
       </c>
       <c r="D62" t="n">
-        <v>1.232733593100837</v>
+        <v>1.108476659956582</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.15039053711339</v>
+        <v>28.98991766581098</v>
       </c>
       <c r="D63" t="n">
-        <v>1.247825666754084</v>
+        <v>1.245666485780778</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.16347663850032</v>
+        <v>28.23488271195601</v>
       </c>
       <c r="D64" t="n">
-        <v>1.126837270359089</v>
+        <v>1.274487552852333</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.87883935080421</v>
+        <v>26.9735867913179</v>
       </c>
       <c r="D65" t="n">
-        <v>1.102693040987784</v>
+        <v>1.256395330405092</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.76269634658117</v>
+        <v>26.13162852634499</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9968069937199557</v>
+        <v>1.266809108838295</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.97899234829778</v>
+        <v>25.09863483939694</v>
       </c>
       <c r="D67" t="n">
-        <v>1.378197127542244</v>
+        <v>1.304116798337399</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.93235929867689</v>
+        <v>23.94963203639542</v>
       </c>
       <c r="D68" t="n">
-        <v>1.249650309517897</v>
+        <v>1.151816063356919</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.0911450954154</v>
+        <v>23.00363067047514</v>
       </c>
       <c r="D69" t="n">
-        <v>1.190226153579637</v>
+        <v>1.051751187524396</v>
       </c>
     </row>
   </sheetData>
